--- a/Test Case.xlsx
+++ b/Test Case.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prince.jain\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prince.jain\AndroidStudioProjects\assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,15 +98,15 @@
  2. if inetrnet is not avaibale then data fetch from local storage</t>
   </si>
   <si>
-    <t>Download APK and install app</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Uninstall from mobile app setting</t>
   </si>
   <si>
     <t>1. Display Car List  
 2. Display Celebrity List</t>
+  </si>
+  <si>
+    <t>Download APK from github and install app</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -503,7 +503,7 @@
     <col min="9" max="9" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,7 +551,7 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -590,7 +590,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>12</v>
@@ -626,7 +626,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>15</v>
@@ -703,7 +703,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
